--- a/biology/Zoologie/Amphisbaena_infraorbitale/Amphisbaena_infraorbitale.xlsx
+++ b/biology/Zoologie/Amphisbaena_infraorbitale/Amphisbaena_infraorbitale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amphisbaena infraorbitale est une espèce d'amphisbènes de la famille des Amphisbaenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amphisbaena infraorbitale est une espèce d'amphisbènes de la famille des Amphisbaenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Brésil[1]. Elle se rencontre dans les États du Pernambouc, de Bahia, d'Espírito Santo, de Rio de Janeiro, du Minas Gerais, du Goiás et du Mato Grosso.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre dans les États du Pernambouc, de Bahia, d'Espírito Santo, de Rio de Janeiro, du Minas Gerais, du Goiás et du Mato Grosso.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Berthold, 1859 : Einige neue Reptilien des akad. zoolog. Museums in Göttingen. Nachrichten von der Georg-Augusts-Universität und der Königl. Gesellschaft der Wissenschaften zu Göttingen, vol. 1859, p. 179-181.</t>
         </is>
